--- a/ДЗ№3 Галлямов И.Р. гр. 1905.xlsx
+++ b/ДЗ№3 Галлямов И.Р. гр. 1905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Регистрация не пройдена, красным выделено незаполненное поле.</t>
+  </si>
+  <si>
+    <t>пройден</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +692,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1919,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2498,20 +2500,20 @@
     </row>
     <row r="6" spans="1:110" ht="27" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="50" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="11"/>
@@ -2620,16 +2622,16 @@
     </row>
     <row r="7" spans="1:110" ht="53.25" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2754,7 +2756,9 @@
       <c r="G8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2878,7 +2882,9 @@
       <c r="G9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3002,7 +3008,9 @@
       <c r="G10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="20"/>
@@ -3124,7 +3132,9 @@
         <v>20</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -3248,7 +3258,9 @@
       <c r="G12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -3372,109 +3384,111 @@
       <c r="G13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="28"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="28"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="28"/>
-      <c r="BK13" s="27"/>
-      <c r="BL13" s="28"/>
-      <c r="BM13" s="27"/>
-      <c r="BN13" s="28"/>
-      <c r="BO13" s="27"/>
-      <c r="BP13" s="28"/>
-      <c r="BQ13" s="27"/>
-      <c r="BR13" s="28"/>
-      <c r="BS13" s="27"/>
-      <c r="BT13" s="28"/>
-      <c r="BU13" s="27"/>
-      <c r="BV13" s="28"/>
-      <c r="BW13" s="27"/>
-      <c r="BX13" s="28"/>
-      <c r="BY13" s="27"/>
-      <c r="BZ13" s="28"/>
-      <c r="CA13" s="27"/>
-      <c r="CB13" s="28"/>
-      <c r="CC13" s="27"/>
-      <c r="CD13" s="28"/>
-      <c r="CE13" s="27"/>
-      <c r="CF13" s="28"/>
-      <c r="CG13" s="27"/>
-      <c r="CH13" s="28"/>
-      <c r="CI13" s="27"/>
-      <c r="CJ13" s="28"/>
-      <c r="CK13" s="27"/>
-      <c r="CL13" s="28"/>
-      <c r="CM13" s="27"/>
-      <c r="CN13" s="28"/>
-      <c r="CO13" s="27"/>
-      <c r="CP13" s="28"/>
-      <c r="CQ13" s="27"/>
-      <c r="CR13" s="28"/>
-      <c r="CS13" s="27"/>
-      <c r="CT13" s="28"/>
-      <c r="CU13" s="27"/>
-      <c r="CV13" s="28"/>
-      <c r="CW13" s="28"/>
-      <c r="CX13" s="28"/>
-      <c r="CY13" s="28"/>
-      <c r="CZ13" s="29"/>
-      <c r="DA13" s="28"/>
-      <c r="DB13" s="30"/>
-      <c r="DC13" s="30"/>
-      <c r="DD13" s="30"/>
-      <c r="DE13" s="30"/>
-      <c r="DF13" s="30"/>
+      <c r="H13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="27"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="27"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="27"/>
+      <c r="BQ13" s="26"/>
+      <c r="BR13" s="27"/>
+      <c r="BS13" s="26"/>
+      <c r="BT13" s="27"/>
+      <c r="BU13" s="26"/>
+      <c r="BV13" s="27"/>
+      <c r="BW13" s="26"/>
+      <c r="BX13" s="27"/>
+      <c r="BY13" s="26"/>
+      <c r="BZ13" s="27"/>
+      <c r="CA13" s="26"/>
+      <c r="CB13" s="27"/>
+      <c r="CC13" s="26"/>
+      <c r="CD13" s="27"/>
+      <c r="CE13" s="26"/>
+      <c r="CF13" s="27"/>
+      <c r="CG13" s="26"/>
+      <c r="CH13" s="27"/>
+      <c r="CI13" s="26"/>
+      <c r="CJ13" s="27"/>
+      <c r="CK13" s="26"/>
+      <c r="CL13" s="27"/>
+      <c r="CM13" s="26"/>
+      <c r="CN13" s="27"/>
+      <c r="CO13" s="26"/>
+      <c r="CP13" s="27"/>
+      <c r="CQ13" s="26"/>
+      <c r="CR13" s="27"/>
+      <c r="CS13" s="26"/>
+      <c r="CT13" s="27"/>
+      <c r="CU13" s="26"/>
+      <c r="CV13" s="27"/>
+      <c r="CW13" s="27"/>
+      <c r="CX13" s="27"/>
+      <c r="CY13" s="27"/>
+      <c r="CZ13" s="28"/>
+      <c r="DA13" s="27"/>
+      <c r="DB13" s="29"/>
+      <c r="DC13" s="29"/>
+      <c r="DD13" s="29"/>
+      <c r="DE13" s="29"/>
+      <c r="DF13" s="29"/>
     </row>
     <row r="14" spans="1:110" ht="135" customHeight="1">
       <c r="A14" s="10"/>
@@ -3494,7 +3508,9 @@
         <v>32</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -3618,7 +3634,9 @@
       <c r="G15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -3742,109 +3760,111 @@
       <c r="G16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
-      <c r="BH16" s="33"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="33"/>
-      <c r="BK16" s="33"/>
-      <c r="BL16" s="33"/>
-      <c r="BM16" s="33"/>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="33"/>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="33"/>
-      <c r="BR16" s="33"/>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="33"/>
-      <c r="BU16" s="33"/>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
-      <c r="CA16" s="33"/>
-      <c r="CB16" s="33"/>
-      <c r="CC16" s="33"/>
-      <c r="CD16" s="33"/>
-      <c r="CE16" s="33"/>
-      <c r="CF16" s="33"/>
-      <c r="CG16" s="33"/>
-      <c r="CH16" s="33"/>
-      <c r="CI16" s="33"/>
-      <c r="CJ16" s="33"/>
-      <c r="CK16" s="33"/>
-      <c r="CL16" s="33"/>
-      <c r="CM16" s="33"/>
-      <c r="CN16" s="33"/>
-      <c r="CO16" s="33"/>
-      <c r="CP16" s="33"/>
-      <c r="CQ16" s="33"/>
-      <c r="CR16" s="33"/>
-      <c r="CS16" s="33"/>
-      <c r="CT16" s="33"/>
-      <c r="CU16" s="33"/>
-      <c r="CV16" s="33"/>
-      <c r="CW16" s="33"/>
-      <c r="CX16" s="33"/>
-      <c r="CY16" s="33"/>
-      <c r="CZ16" s="33"/>
-      <c r="DA16" s="33"/>
-      <c r="DB16" s="33"/>
-      <c r="DC16" s="33"/>
-      <c r="DD16" s="33"/>
-      <c r="DE16" s="33"/>
-      <c r="DF16" s="33"/>
+      <c r="H16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="32"/>
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="32"/>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="32"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="32"/>
+      <c r="BY16" s="32"/>
+      <c r="BZ16" s="32"/>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="32"/>
+      <c r="CD16" s="32"/>
+      <c r="CE16" s="32"/>
+      <c r="CF16" s="32"/>
+      <c r="CG16" s="32"/>
+      <c r="CH16" s="32"/>
+      <c r="CI16" s="32"/>
+      <c r="CJ16" s="32"/>
+      <c r="CK16" s="32"/>
+      <c r="CL16" s="32"/>
+      <c r="CM16" s="32"/>
+      <c r="CN16" s="32"/>
+      <c r="CO16" s="32"/>
+      <c r="CP16" s="32"/>
+      <c r="CQ16" s="32"/>
+      <c r="CR16" s="32"/>
+      <c r="CS16" s="32"/>
+      <c r="CT16" s="32"/>
+      <c r="CU16" s="32"/>
+      <c r="CV16" s="32"/>
+      <c r="CW16" s="32"/>
+      <c r="CX16" s="32"/>
+      <c r="CY16" s="32"/>
+      <c r="CZ16" s="32"/>
+      <c r="DA16" s="32"/>
+      <c r="DB16" s="32"/>
+      <c r="DC16" s="32"/>
+      <c r="DD16" s="32"/>
+      <c r="DE16" s="32"/>
+      <c r="DF16" s="32"/>
     </row>
     <row r="17" spans="1:110" ht="120" customHeight="1">
       <c r="A17" s="10"/>
@@ -3864,7 +3884,9 @@
         <v>44</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -3974,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -4088,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4202,7 +4224,7 @@
       <c r="C20" s="16"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="34"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="18"/>
       <c r="H20" s="11"/>
       <c r="I20" s="5"/>
@@ -4762,7 +4784,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="36"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
       <c r="I25" s="17"/>
@@ -4874,7 +4896,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="36"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="18"/>
       <c r="H26" s="24"/>
       <c r="I26" s="21"/>
@@ -4986,111 +5008,111 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="33"/>
-      <c r="BC27" s="33"/>
-      <c r="BD27" s="33"/>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="33"/>
-      <c r="BG27" s="33"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="33"/>
-      <c r="BJ27" s="33"/>
-      <c r="BK27" s="33"/>
-      <c r="BL27" s="33"/>
-      <c r="BM27" s="33"/>
-      <c r="BN27" s="33"/>
-      <c r="BO27" s="33"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="33"/>
-      <c r="BR27" s="33"/>
-      <c r="BS27" s="33"/>
-      <c r="BT27" s="33"/>
-      <c r="BU27" s="33"/>
-      <c r="BV27" s="33"/>
-      <c r="BW27" s="33"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="33"/>
-      <c r="BZ27" s="33"/>
-      <c r="CA27" s="33"/>
-      <c r="CB27" s="33"/>
-      <c r="CC27" s="33"/>
-      <c r="CD27" s="33"/>
-      <c r="CE27" s="33"/>
-      <c r="CF27" s="33"/>
-      <c r="CG27" s="33"/>
-      <c r="CH27" s="33"/>
-      <c r="CI27" s="33"/>
-      <c r="CJ27" s="33"/>
-      <c r="CK27" s="33"/>
-      <c r="CL27" s="33"/>
-      <c r="CM27" s="33"/>
-      <c r="CN27" s="33"/>
-      <c r="CO27" s="33"/>
-      <c r="CP27" s="33"/>
-      <c r="CQ27" s="33"/>
-      <c r="CR27" s="33"/>
-      <c r="CS27" s="33"/>
-      <c r="CT27" s="33"/>
-      <c r="CU27" s="33"/>
-      <c r="CV27" s="33"/>
-      <c r="CW27" s="33"/>
-      <c r="CX27" s="33"/>
-      <c r="CY27" s="33"/>
-      <c r="CZ27" s="33"/>
-      <c r="DA27" s="33"/>
-      <c r="DB27" s="33"/>
-      <c r="DC27" s="33"/>
-      <c r="DD27" s="33"/>
-      <c r="DE27" s="33"/>
-      <c r="DF27" s="33"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="32"/>
+      <c r="BO27" s="32"/>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="32"/>
+      <c r="BS27" s="32"/>
+      <c r="BT27" s="32"/>
+      <c r="BU27" s="32"/>
+      <c r="BV27" s="32"/>
+      <c r="BW27" s="32"/>
+      <c r="BX27" s="32"/>
+      <c r="BY27" s="32"/>
+      <c r="BZ27" s="32"/>
+      <c r="CA27" s="32"/>
+      <c r="CB27" s="32"/>
+      <c r="CC27" s="32"/>
+      <c r="CD27" s="32"/>
+      <c r="CE27" s="32"/>
+      <c r="CF27" s="32"/>
+      <c r="CG27" s="32"/>
+      <c r="CH27" s="32"/>
+      <c r="CI27" s="32"/>
+      <c r="CJ27" s="32"/>
+      <c r="CK27" s="32"/>
+      <c r="CL27" s="32"/>
+      <c r="CM27" s="32"/>
+      <c r="CN27" s="32"/>
+      <c r="CO27" s="32"/>
+      <c r="CP27" s="32"/>
+      <c r="CQ27" s="32"/>
+      <c r="CR27" s="32"/>
+      <c r="CS27" s="32"/>
+      <c r="CT27" s="32"/>
+      <c r="CU27" s="32"/>
+      <c r="CV27" s="32"/>
+      <c r="CW27" s="32"/>
+      <c r="CX27" s="32"/>
+      <c r="CY27" s="32"/>
+      <c r="CZ27" s="32"/>
+      <c r="DA27" s="32"/>
+      <c r="DB27" s="32"/>
+      <c r="DC27" s="32"/>
+      <c r="DD27" s="32"/>
+      <c r="DE27" s="32"/>
+      <c r="DF27" s="32"/>
     </row>
     <row r="28" spans="1:110" ht="105" customHeight="1">
       <c r="A28" s="10"/>
@@ -5098,7 +5120,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="36"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="18"/>
       <c r="H28" s="11"/>
       <c r="I28" s="5"/>
@@ -5210,7 +5232,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="36"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="18"/>
       <c r="H29" s="11"/>
       <c r="I29" s="5"/>
@@ -5322,7 +5344,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="36"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="18"/>
       <c r="H30" s="11"/>
       <c r="I30" s="5"/>
@@ -5434,7 +5456,7 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="37"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="18"/>
       <c r="H31" s="11"/>
       <c r="I31" s="5"/>
@@ -5543,7 +5565,7 @@
     <row r="32" spans="1:110" ht="105" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="38"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -5767,7 +5789,7 @@
     <row r="34" spans="1:110" ht="75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="35"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -5879,8 +5901,8 @@
     <row r="35" spans="1:110" ht="15.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -6666,7 +6688,7 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="37"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="18"/>
       <c r="H42" s="11"/>
       <c r="I42" s="5"/>
@@ -6778,7 +6800,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="37"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="18"/>
       <c r="H43" s="11"/>
       <c r="I43" s="5"/>
@@ -6890,7 +6912,7 @@
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="37"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="18"/>
       <c r="H44" s="11"/>
       <c r="I44" s="5"/>
@@ -7227,7 +7249,7 @@
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="40"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="11"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -7339,7 +7361,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="41"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -7785,7 +7807,7 @@
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="42"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="11"/>
@@ -7897,7 +7919,7 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="42"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="11"/>
@@ -8009,7 +8031,7 @@
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="11"/>
@@ -8120,8 +8142,8 @@
       <c r="A55" s="10"/>
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="42"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="11"/>
@@ -8233,7 +8255,7 @@
       <c r="B56" s="18"/>
       <c r="C56" s="16"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="11"/>
@@ -8345,7 +8367,7 @@
       <c r="B57" s="18"/>
       <c r="C57" s="16"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="42"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="11"/>
@@ -8457,7 +8479,7 @@
       <c r="B58" s="18"/>
       <c r="C58" s="16"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="42"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="11"/>
@@ -8569,7 +8591,7 @@
       <c r="B59" s="18"/>
       <c r="C59" s="16"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="42"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="11"/>
@@ -8681,7 +8703,7 @@
       <c r="B60" s="18"/>
       <c r="C60" s="16"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="42"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="11"/>
@@ -8793,7 +8815,7 @@
       <c r="B61" s="18"/>
       <c r="C61" s="16"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="42"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="11"/>
@@ -8905,7 +8927,7 @@
       <c r="B62" s="18"/>
       <c r="C62" s="16"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="42"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="11"/>
@@ -9017,7 +9039,7 @@
       <c r="B63" s="18"/>
       <c r="C63" s="16"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="42"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="11"/>
@@ -9129,7 +9151,7 @@
       <c r="B64" s="18"/>
       <c r="C64" s="16"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="42"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="11"/>
@@ -9241,7 +9263,7 @@
       <c r="B65" s="18"/>
       <c r="C65" s="16"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="42"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="11"/>
@@ -9353,7 +9375,7 @@
       <c r="B66" s="18"/>
       <c r="C66" s="16"/>
       <c r="D66" s="18"/>
-      <c r="E66" s="42"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="11"/>
@@ -9465,7 +9487,7 @@
       <c r="B67" s="18"/>
       <c r="C67" s="16"/>
       <c r="D67" s="18"/>
-      <c r="E67" s="42"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="11"/>
@@ -9577,7 +9599,7 @@
       <c r="B68" s="18"/>
       <c r="C68" s="16"/>
       <c r="D68" s="18"/>
-      <c r="E68" s="42"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="11"/>
@@ -9689,7 +9711,7 @@
       <c r="B69" s="18"/>
       <c r="C69" s="16"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="42"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="11"/>
@@ -9801,7 +9823,7 @@
       <c r="B70" s="18"/>
       <c r="C70" s="16"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="42"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="11"/>
@@ -10025,7 +10047,7 @@
       <c r="B72" s="18"/>
       <c r="C72" s="16"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="42"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="11"/>
@@ -10137,7 +10159,7 @@
       <c r="B73" s="18"/>
       <c r="C73" s="16"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="42"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="11"/>
@@ -10245,13 +10267,13 @@
       <c r="DF73" s="6"/>
     </row>
     <row r="74" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
       <c r="H74" s="4"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -10357,18 +10379,18 @@
       <c r="DF74" s="6"/>
     </row>
     <row r="75" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="47">
+      <c r="E75" s="46">
         <f>COUNTA(D8:D73)</f>
         <v>10</v>
       </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -10474,13 +10496,13 @@
       <c r="DF75" s="6"/>
     </row>
     <row r="76" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A76" s="43"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
       <c r="H76" s="4"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -10586,13 +10608,13 @@
       <c r="DF76" s="6"/>
     </row>
     <row r="77" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -10810,7 +10832,7 @@
       <c r="DF78" s="6"/>
     </row>
     <row r="79" spans="1:110" ht="14.25" customHeight="1">
-      <c r="A79" s="50"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -10922,7 +10944,7 @@
       <c r="DF79" s="6"/>
     </row>
     <row r="80" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A80" s="50"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -11034,7 +11056,7 @@
       <c r="DF80" s="6"/>
     </row>
     <row r="81" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A81" s="50"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -11146,7 +11168,7 @@
       <c r="DF81" s="6"/>
     </row>
     <row r="82" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A82" s="50"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -11258,7 +11280,7 @@
       <c r="DF82" s="6"/>
     </row>
     <row r="83" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A83" s="50"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -11370,7 +11392,7 @@
       <c r="DF83" s="6"/>
     </row>
     <row r="84" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A84" s="50"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -11482,7 +11504,7 @@
       <c r="DF84" s="6"/>
     </row>
     <row r="85" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A85" s="50"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -11594,7 +11616,7 @@
       <c r="DF85" s="6"/>
     </row>
     <row r="86" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A86" s="50"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -11706,7 +11728,7 @@
       <c r="DF86" s="6"/>
     </row>
     <row r="87" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A87" s="50"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -11818,7 +11840,7 @@
       <c r="DF87" s="6"/>
     </row>
     <row r="88" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A88" s="50"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -11930,7 +11952,7 @@
       <c r="DF88" s="6"/>
     </row>
     <row r="89" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A89" s="50"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -12042,7 +12064,7 @@
       <c r="DF89" s="6"/>
     </row>
     <row r="90" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A90" s="50"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
